--- a/app/src/main/res/raw/testing.xlsx
+++ b/app/src/main/res/raw/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2B254-3B5E-4FA5-9CAB-F531C43A9AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F973348-D67F-460A-923B-250ACD55A951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relations" sheetId="7" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -823,9 +823,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3">
-        <v>85</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -974,7 +972,7 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
